--- a/pred_ohlcv/54/2019-10-19 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 ZRX ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C2" t="n">
         <v>352</v>
       </c>
       <c r="D2" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E2" t="n">
         <v>352</v>
       </c>
       <c r="F2" t="n">
-        <v>863.5133</v>
+        <v>66.59220000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>351.3333333333333</v>
+        <v>351.3666666666667</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C3" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D3" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E3" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F3" t="n">
-        <v>139.3104</v>
+        <v>863.5133</v>
       </c>
       <c r="G3" t="n">
-        <v>351.2666666666667</v>
+        <v>351.3333333333333</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C4" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D4" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E4" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F4" t="n">
-        <v>28.328611898017</v>
+        <v>139.3104</v>
       </c>
       <c r="G4" t="n">
         <v>351.2666666666667</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -489,21 +503,24 @@
         <v>353</v>
       </c>
       <c r="C5" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D5" t="n">
         <v>353</v>
       </c>
       <c r="E5" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F5" t="n">
-        <v>92.1449266031419</v>
+        <v>28.328611898017</v>
       </c>
       <c r="G5" t="n">
         <v>351.2666666666667</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C6" t="n">
         <v>352</v>
       </c>
       <c r="D6" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E6" t="n">
         <v>352</v>
       </c>
       <c r="F6" t="n">
-        <v>103.9863</v>
+        <v>92.1449266031419</v>
       </c>
       <c r="G6" t="n">
         <v>351.2666666666667</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>352</v>
       </c>
       <c r="F7" t="n">
-        <v>36</v>
+        <v>103.9863</v>
       </c>
       <c r="G7" t="n">
         <v>351.2666666666667</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C8" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D8" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E8" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F8" t="n">
-        <v>716.6706</v>
+        <v>36</v>
       </c>
       <c r="G8" t="n">
-        <v>351.3166666666667</v>
+        <v>351.2666666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C9" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D9" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E9" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>716.6706</v>
       </c>
       <c r="G9" t="n">
-        <v>351.45</v>
+        <v>351.3166666666667</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,12 +657,15 @@
         <v>355</v>
       </c>
       <c r="F10" t="n">
-        <v>1043</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>351.5666666666667</v>
+        <v>351.45</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C11" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D11" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E11" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F11" t="n">
-        <v>59.6</v>
+        <v>1043</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7</v>
+        <v>351.5666666666667</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C12" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D12" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E12" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F12" t="n">
-        <v>63.8212</v>
+        <v>59.6</v>
       </c>
       <c r="G12" t="n">
-        <v>351.8</v>
+        <v>351.7</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,25 +732,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C13" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D13" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E13" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F13" t="n">
-        <v>839.0749</v>
+        <v>63.8212</v>
       </c>
       <c r="G13" t="n">
-        <v>351.85</v>
+        <v>351.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -732,12 +773,15 @@
         <v>353</v>
       </c>
       <c r="F14" t="n">
-        <v>3.9288</v>
+        <v>839.0749</v>
       </c>
       <c r="G14" t="n">
-        <v>351.9</v>
+        <v>351.85</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,12 +802,15 @@
         <v>353</v>
       </c>
       <c r="F15" t="n">
-        <v>418.4847</v>
+        <v>3.9288</v>
       </c>
       <c r="G15" t="n">
-        <v>351.95</v>
+        <v>351.9</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,21 +822,24 @@
         <v>353</v>
       </c>
       <c r="C16" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D16" t="n">
         <v>353</v>
       </c>
       <c r="E16" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F16" t="n">
-        <v>565.5746</v>
+        <v>418.4847</v>
       </c>
       <c r="G16" t="n">
-        <v>351.9833333333333</v>
+        <v>351.95</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>353</v>
+      </c>
+      <c r="C17" t="n">
         <v>352</v>
       </c>
-      <c r="C17" t="n">
-        <v>351</v>
-      </c>
       <c r="D17" t="n">
+        <v>353</v>
+      </c>
+      <c r="E17" t="n">
         <v>352</v>
       </c>
-      <c r="E17" t="n">
-        <v>351</v>
-      </c>
       <c r="F17" t="n">
-        <v>274.4457</v>
+        <v>565.5746</v>
       </c>
       <c r="G17" t="n">
-        <v>352</v>
+        <v>351.9833333333333</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C18" t="n">
         <v>351</v>
       </c>
       <c r="D18" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E18" t="n">
         <v>351</v>
       </c>
       <c r="F18" t="n">
-        <v>300</v>
+        <v>274.4457</v>
       </c>
       <c r="G18" t="n">
-        <v>351.9833333333333</v>
+        <v>352</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C19" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D19" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E19" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F19" t="n">
-        <v>437.4643</v>
+        <v>300</v>
       </c>
       <c r="G19" t="n">
         <v>351.9833333333333</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>353</v>
       </c>
       <c r="F20" t="n">
-        <v>480.8463</v>
+        <v>437.4643</v>
       </c>
       <c r="G20" t="n">
-        <v>352.0166666666667</v>
+        <v>351.9833333333333</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C21" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D21" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E21" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F21" t="n">
-        <v>8.3248</v>
+        <v>480.8463</v>
       </c>
       <c r="G21" t="n">
-        <v>352.0333333333334</v>
+        <v>352.0166666666667</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>354</v>
       </c>
       <c r="F22" t="n">
-        <v>8.477399999999999</v>
+        <v>8.3248</v>
       </c>
       <c r="G22" t="n">
-        <v>352.0666666666667</v>
+        <v>352.0333333333334</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>354</v>
       </c>
       <c r="F23" t="n">
-        <v>46.0839</v>
+        <v>8.477399999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>352.1166666666667</v>
+        <v>352.0666666666667</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C24" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D24" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E24" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F24" t="n">
-        <v>603.5869</v>
+        <v>46.0839</v>
       </c>
       <c r="G24" t="n">
-        <v>352.1666666666667</v>
+        <v>352.1166666666667</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C25" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D25" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E25" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F25" t="n">
-        <v>157.6168</v>
+        <v>603.5869</v>
       </c>
       <c r="G25" t="n">
-        <v>352.25</v>
+        <v>352.1666666666667</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>355</v>
       </c>
       <c r="F26" t="n">
-        <v>1232.6637</v>
+        <v>157.6168</v>
       </c>
       <c r="G26" t="n">
-        <v>352.3333333333333</v>
+        <v>352.25</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C27" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D27" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E27" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F27" t="n">
-        <v>106.8406</v>
+        <v>1232.6637</v>
       </c>
       <c r="G27" t="n">
-        <v>352.4</v>
+        <v>352.3333333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C28" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D28" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E28" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F28" t="n">
-        <v>602.0685</v>
+        <v>106.8406</v>
       </c>
       <c r="G28" t="n">
-        <v>352.4833333333333</v>
+        <v>352.4</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>355</v>
       </c>
       <c r="F29" t="n">
-        <v>390</v>
+        <v>602.0685</v>
       </c>
       <c r="G29" t="n">
-        <v>352.55</v>
+        <v>352.4833333333333</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C30" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D30" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E30" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F30" t="n">
-        <v>57.0046</v>
+        <v>390</v>
       </c>
       <c r="G30" t="n">
-        <v>352.7166666666666</v>
+        <v>352.55</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C31" t="n">
+        <v>357</v>
+      </c>
+      <c r="D31" t="n">
+        <v>357</v>
+      </c>
+      <c r="E31" t="n">
         <v>356</v>
       </c>
-      <c r="D31" t="n">
-        <v>356</v>
-      </c>
-      <c r="E31" t="n">
-        <v>355</v>
-      </c>
       <c r="F31" t="n">
-        <v>68.95959999999999</v>
+        <v>57.0046</v>
       </c>
       <c r="G31" t="n">
-        <v>352.85</v>
+        <v>352.7166666666666</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,7 +1283,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C32" t="n">
         <v>356</v>
@@ -1197,16 +1292,19 @@
         <v>356</v>
       </c>
       <c r="E32" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F32" t="n">
-        <v>257</v>
+        <v>68.95959999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>353</v>
+        <v>352.85</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1214,25 +1312,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C33" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D33" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E33" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F33" t="n">
-        <v>2414.344</v>
+        <v>257</v>
       </c>
       <c r="G33" t="n">
-        <v>353.1666666666667</v>
+        <v>353</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1252,12 +1353,15 @@
         <v>357</v>
       </c>
       <c r="F34" t="n">
-        <v>1704.1263</v>
+        <v>2414.344</v>
       </c>
       <c r="G34" t="n">
-        <v>353.3333333333333</v>
+        <v>353.1666666666667</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,13 +1382,16 @@
         <v>357</v>
       </c>
       <c r="F35" t="n">
-        <v>237.0366</v>
+        <v>1704.1263</v>
       </c>
       <c r="G35" t="n">
-        <v>353.5</v>
+        <v>353.3333333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1295,22 +1402,25 @@
         <v>357</v>
       </c>
       <c r="C36" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D36" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E36" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F36" t="n">
-        <v>5406.864154444444</v>
+        <v>237.0366</v>
       </c>
       <c r="G36" t="n">
-        <v>353.7</v>
+        <v>353.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C37" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D37" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E37" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F37" t="n">
-        <v>608.7151</v>
+        <v>5406.864154444444</v>
       </c>
       <c r="G37" t="n">
-        <v>353.8333333333333</v>
+        <v>353.7</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,25 +1457,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C38" t="n">
         <v>357</v>
       </c>
       <c r="D38" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E38" t="n">
         <v>357</v>
       </c>
       <c r="F38" t="n">
-        <v>23.2667</v>
+        <v>608.7151</v>
       </c>
       <c r="G38" t="n">
-        <v>353.9166666666667</v>
+        <v>353.8333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1370,25 +1486,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C39" t="n">
         <v>357</v>
       </c>
       <c r="D39" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E39" t="n">
         <v>357</v>
       </c>
       <c r="F39" t="n">
-        <v>6179.5175</v>
+        <v>23.2667</v>
       </c>
       <c r="G39" t="n">
-        <v>353.9833333333333</v>
+        <v>353.9166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1399,21 +1518,24 @@
         <v>358</v>
       </c>
       <c r="C40" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D40" t="n">
         <v>358</v>
       </c>
       <c r="E40" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F40" t="n">
-        <v>422.6136</v>
+        <v>6179.5175</v>
       </c>
       <c r="G40" t="n">
-        <v>354.0666666666667</v>
+        <v>353.9833333333333</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,13 +1556,16 @@
         <v>358</v>
       </c>
       <c r="F41" t="n">
-        <v>2989.4929</v>
+        <v>422.6136</v>
       </c>
       <c r="G41" t="n">
-        <v>354.15</v>
+        <v>354.0666666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1448,7 +1573,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C42" t="n">
         <v>358</v>
@@ -1457,15 +1582,18 @@
         <v>358</v>
       </c>
       <c r="E42" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F42" t="n">
-        <v>3485</v>
+        <v>2989.4929</v>
       </c>
       <c r="G42" t="n">
-        <v>354.2166666666666</v>
+        <v>354.15</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1477,21 +1605,24 @@
         <v>357</v>
       </c>
       <c r="C43" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D43" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E43" t="n">
         <v>357</v>
       </c>
       <c r="F43" t="n">
-        <v>3204.2866</v>
+        <v>3485</v>
       </c>
       <c r="G43" t="n">
-        <v>354.2333333333333</v>
+        <v>354.2166666666666</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1503,21 +1634,24 @@
         <v>357</v>
       </c>
       <c r="C44" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D44" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E44" t="n">
         <v>357</v>
       </c>
       <c r="F44" t="n">
-        <v>202</v>
+        <v>3204.2866</v>
       </c>
       <c r="G44" t="n">
-        <v>354.2833333333334</v>
+        <v>354.2333333333333</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,10 +1660,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>357</v>
+      </c>
+      <c r="C45" t="n">
         <v>359</v>
-      </c>
-      <c r="C45" t="n">
-        <v>357</v>
       </c>
       <c r="D45" t="n">
         <v>359</v>
@@ -1538,12 +1672,15 @@
         <v>357</v>
       </c>
       <c r="F45" t="n">
-        <v>6425.7502</v>
+        <v>202</v>
       </c>
       <c r="G45" t="n">
-        <v>354.3166666666667</v>
+        <v>354.2833333333334</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,10 +1689,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C46" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D46" t="n">
         <v>359</v>
@@ -1564,12 +1701,15 @@
         <v>357</v>
       </c>
       <c r="F46" t="n">
-        <v>2085.4433</v>
+        <v>6425.7502</v>
       </c>
       <c r="G46" t="n">
-        <v>354.3333333333333</v>
+        <v>354.3166666666667</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,25 +1718,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C47" t="n">
         <v>358</v>
       </c>
       <c r="D47" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E47" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F47" t="n">
-        <v>97.5223</v>
+        <v>2085.4433</v>
       </c>
       <c r="G47" t="n">
-        <v>354.35</v>
+        <v>354.3333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C48" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D48" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E48" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F48" t="n">
-        <v>7982.185</v>
+        <v>97.5223</v>
       </c>
       <c r="G48" t="n">
         <v>354.35</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>355</v>
       </c>
       <c r="F49" t="n">
-        <v>1108.1044</v>
+        <v>7982.185</v>
       </c>
       <c r="G49" t="n">
-        <v>354.3833333333333</v>
+        <v>354.35</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C50" t="n">
         <v>355</v>
       </c>
       <c r="D50" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E50" t="n">
         <v>355</v>
       </c>
       <c r="F50" t="n">
-        <v>8379.9213</v>
+        <v>1108.1044</v>
       </c>
       <c r="G50" t="n">
-        <v>354.4333333333333</v>
+        <v>354.3833333333333</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>355</v>
       </c>
       <c r="F51" t="n">
-        <v>25.2879</v>
+        <v>8379.9213</v>
       </c>
       <c r="G51" t="n">
-        <v>354.4833333333333</v>
+        <v>354.4333333333333</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>355</v>
       </c>
       <c r="F52" t="n">
-        <v>2012.9554</v>
+        <v>25.2879</v>
       </c>
       <c r="G52" t="n">
-        <v>354.5333333333334</v>
+        <v>354.4833333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>355</v>
       </c>
       <c r="F53" t="n">
-        <v>75.39960000000001</v>
+        <v>2012.9554</v>
       </c>
       <c r="G53" t="n">
-        <v>354.5833333333333</v>
+        <v>354.5333333333334</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C54" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D54" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E54" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F54" t="n">
-        <v>317.258</v>
+        <v>75.39960000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>354.6833333333333</v>
+        <v>354.5833333333333</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C55" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D55" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E55" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F55" t="n">
-        <v>263</v>
+        <v>317.258</v>
       </c>
       <c r="G55" t="n">
-        <v>354.7333333333333</v>
+        <v>354.6833333333333</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C56" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D56" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E56" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F56" t="n">
-        <v>678</v>
+        <v>263</v>
       </c>
       <c r="G56" t="n">
-        <v>354.7666666666667</v>
+        <v>354.7333333333333</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1841,21 +2011,24 @@
         <v>357</v>
       </c>
       <c r="C57" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D57" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E57" t="n">
         <v>357</v>
       </c>
       <c r="F57" t="n">
-        <v>22959.3832</v>
+        <v>678</v>
       </c>
       <c r="G57" t="n">
-        <v>354.8833333333333</v>
+        <v>354.7666666666667</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,7 +2037,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C58" t="n">
         <v>359</v>
@@ -1873,15 +2046,18 @@
         <v>359</v>
       </c>
       <c r="E58" t="n">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F58" t="n">
-        <v>4.5682</v>
+        <v>22959.3832</v>
       </c>
       <c r="G58" t="n">
-        <v>355</v>
+        <v>354.8833333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,13 +2078,16 @@
         <v>359</v>
       </c>
       <c r="F59" t="n">
-        <v>1408.1431</v>
+        <v>4.5682</v>
       </c>
       <c r="G59" t="n">
-        <v>355.1333333333333</v>
+        <v>355</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C60" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D60" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E60" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F60" t="n">
-        <v>69.44444444444444</v>
+        <v>1408.1431</v>
       </c>
       <c r="G60" t="n">
-        <v>355.2833333333334</v>
+        <v>355.1333333333333</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>360</v>
       </c>
       <c r="F61" t="n">
-        <v>1432</v>
+        <v>69.44444444444444</v>
       </c>
       <c r="G61" t="n">
-        <v>355.4166666666667</v>
+        <v>355.2833333333334</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1971,21 +2156,24 @@
         <v>360</v>
       </c>
       <c r="C62" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D62" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E62" t="n">
         <v>360</v>
       </c>
       <c r="F62" t="n">
-        <v>8642.747501111111</v>
+        <v>1432</v>
       </c>
       <c r="G62" t="n">
-        <v>355.5833333333333</v>
+        <v>355.4166666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,7 +2182,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C63" t="n">
         <v>362</v>
@@ -2003,15 +2191,18 @@
         <v>362</v>
       </c>
       <c r="E63" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F63" t="n">
-        <v>21027.303</v>
+        <v>8642.747501111111</v>
       </c>
       <c r="G63" t="n">
-        <v>355.7666666666667</v>
+        <v>355.5833333333333</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,7 +2211,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C64" t="n">
         <v>362</v>
@@ -2029,15 +2220,18 @@
         <v>362</v>
       </c>
       <c r="E64" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F64" t="n">
-        <v>30</v>
+        <v>21027.303</v>
       </c>
       <c r="G64" t="n">
-        <v>355.9166666666667</v>
+        <v>355.7666666666667</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C65" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D65" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E65" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F65" t="n">
-        <v>2125.4146</v>
+        <v>30</v>
       </c>
       <c r="G65" t="n">
-        <v>356.1</v>
+        <v>355.9166666666667</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,25 +2269,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C66" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D66" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E66" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F66" t="n">
-        <v>1000</v>
+        <v>2125.4146</v>
       </c>
       <c r="G66" t="n">
-        <v>356.3</v>
+        <v>356.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C67" t="n">
         <v>364</v>
       </c>
       <c r="D67" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E67" t="n">
         <v>364</v>
       </c>
       <c r="F67" t="n">
-        <v>1403.1725</v>
+        <v>1000</v>
       </c>
       <c r="G67" t="n">
-        <v>356.5</v>
+        <v>356.3</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C68" t="n">
         <v>364</v>
       </c>
       <c r="D68" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E68" t="n">
         <v>364</v>
       </c>
       <c r="F68" t="n">
-        <v>145.4989</v>
+        <v>1403.1725</v>
       </c>
       <c r="G68" t="n">
-        <v>356.6833333333333</v>
+        <v>356.5</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C69" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D69" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E69" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F69" t="n">
-        <v>935.9999</v>
+        <v>145.4989</v>
       </c>
       <c r="G69" t="n">
-        <v>356.85</v>
+        <v>356.6833333333333</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>365</v>
       </c>
       <c r="F70" t="n">
-        <v>13410.1472</v>
+        <v>935.9999</v>
       </c>
       <c r="G70" t="n">
-        <v>357.0166666666667</v>
+        <v>356.85</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2205,21 +2417,24 @@
         <v>365</v>
       </c>
       <c r="C71" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D71" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E71" t="n">
         <v>365</v>
       </c>
       <c r="F71" t="n">
-        <v>605.4626</v>
+        <v>13410.1472</v>
       </c>
       <c r="G71" t="n">
-        <v>357.1833333333333</v>
+        <v>357.0166666666667</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,7 +2443,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C72" t="n">
         <v>366</v>
@@ -2237,16 +2452,19 @@
         <v>366</v>
       </c>
       <c r="E72" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F72" t="n">
-        <v>5869.2547</v>
+        <v>605.4626</v>
       </c>
       <c r="G72" t="n">
-        <v>357.3833333333333</v>
+        <v>357.1833333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C73" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D73" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E73" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F73" t="n">
-        <v>143.4934</v>
+        <v>5869.2547</v>
       </c>
       <c r="G73" t="n">
-        <v>357.6166666666667</v>
+        <v>357.3833333333333</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C74" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D74" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E74" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>143.4934</v>
       </c>
       <c r="G74" t="n">
-        <v>357.8666666666667</v>
+        <v>357.6166666666667</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>368</v>
       </c>
       <c r="F75" t="n">
-        <v>634.4592</v>
+        <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>358.1166666666667</v>
+        <v>357.8666666666667</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,21 +2562,24 @@
         <v>368</v>
       </c>
       <c r="C76" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D76" t="n">
         <v>368</v>
       </c>
       <c r="E76" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F76" t="n">
-        <v>846.0377</v>
+        <v>634.4592</v>
       </c>
       <c r="G76" t="n">
-        <v>358.3666666666667</v>
+        <v>358.1166666666667</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C77" t="n">
         <v>367</v>
       </c>
       <c r="D77" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E77" t="n">
         <v>367</v>
       </c>
       <c r="F77" t="n">
-        <v>483.11</v>
+        <v>846.0377</v>
       </c>
       <c r="G77" t="n">
-        <v>358.6333333333333</v>
+        <v>358.3666666666667</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C78" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D78" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E78" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F78" t="n">
-        <v>1644.6244</v>
+        <v>483.11</v>
       </c>
       <c r="G78" t="n">
-        <v>358.8833333333333</v>
+        <v>358.6333333333333</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C79" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D79" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E79" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F79" t="n">
-        <v>28056.0698</v>
+        <v>1644.6244</v>
       </c>
       <c r="G79" t="n">
-        <v>359.0833333333333</v>
+        <v>358.8833333333333</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C80" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D80" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E80" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F80" t="n">
-        <v>8214</v>
+        <v>28056.0698</v>
       </c>
       <c r="G80" t="n">
-        <v>359.2666666666667</v>
+        <v>359.0833333333333</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2474,12 +2716,15 @@
         <v>364</v>
       </c>
       <c r="F81" t="n">
-        <v>10000.0249</v>
+        <v>8214</v>
       </c>
       <c r="G81" t="n">
-        <v>359.4333333333333</v>
+        <v>359.2666666666667</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2500,12 +2745,15 @@
         <v>364</v>
       </c>
       <c r="F82" t="n">
-        <v>231.5873</v>
+        <v>10000.0249</v>
       </c>
       <c r="G82" t="n">
-        <v>359.6</v>
+        <v>359.4333333333333</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,12 +2774,15 @@
         <v>364</v>
       </c>
       <c r="F83" t="n">
-        <v>763.4924999999999</v>
+        <v>231.5873</v>
       </c>
       <c r="G83" t="n">
-        <v>359.7666666666667</v>
+        <v>359.6</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,7 +2791,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C84" t="n">
         <v>364</v>
@@ -2549,15 +2800,18 @@
         <v>364</v>
       </c>
       <c r="E84" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F84" t="n">
-        <v>2904.6862</v>
+        <v>763.4924999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>359.95</v>
+        <v>359.7666666666667</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2569,21 +2823,24 @@
         <v>363</v>
       </c>
       <c r="C85" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D85" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E85" t="n">
         <v>363</v>
       </c>
       <c r="F85" t="n">
-        <v>205.4143</v>
+        <v>2904.6862</v>
       </c>
       <c r="G85" t="n">
-        <v>360.0833333333333</v>
+        <v>359.95</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C86" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D86" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E86" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F86" t="n">
-        <v>16381.7055</v>
+        <v>205.4143</v>
       </c>
       <c r="G86" t="n">
-        <v>360.2</v>
+        <v>360.0833333333333</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>362</v>
       </c>
       <c r="F87" t="n">
-        <v>6550.9083</v>
+        <v>16381.7055</v>
       </c>
       <c r="G87" t="n">
-        <v>360.3333333333333</v>
+        <v>360.2</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C88" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D88" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E88" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F88" t="n">
-        <v>139.6497</v>
+        <v>6550.9083</v>
       </c>
       <c r="G88" t="n">
-        <v>360.4833333333333</v>
+        <v>360.3333333333333</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>364</v>
       </c>
       <c r="F89" t="n">
-        <v>24.0818</v>
+        <v>139.6497</v>
       </c>
       <c r="G89" t="n">
-        <v>360.6333333333333</v>
+        <v>360.4833333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2699,21 +2968,24 @@
         <v>364</v>
       </c>
       <c r="C90" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D90" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E90" t="n">
         <v>364</v>
       </c>
       <c r="F90" t="n">
-        <v>518.2195</v>
+        <v>24.0818</v>
       </c>
       <c r="G90" t="n">
-        <v>360.7666666666667</v>
+        <v>360.6333333333333</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,7 +2994,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C91" t="n">
         <v>365</v>
@@ -2731,15 +3003,18 @@
         <v>365</v>
       </c>
       <c r="E91" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F91" t="n">
-        <v>13.965</v>
+        <v>518.2195</v>
       </c>
       <c r="G91" t="n">
-        <v>360.9166666666667</v>
+        <v>360.7666666666667</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>365</v>
       </c>
       <c r="F92" t="n">
-        <v>508.3249</v>
+        <v>13.965</v>
       </c>
       <c r="G92" t="n">
-        <v>361.0666666666667</v>
+        <v>360.9166666666667</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C93" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D93" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E93" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F93" t="n">
-        <v>599.5411</v>
+        <v>508.3249</v>
       </c>
       <c r="G93" t="n">
-        <v>361.1833333333333</v>
+        <v>361.0666666666667</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C94" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D94" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E94" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F94" t="n">
-        <v>442.2043</v>
+        <v>599.5411</v>
       </c>
       <c r="G94" t="n">
-        <v>361.2833333333334</v>
+        <v>361.1833333333333</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C95" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D95" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E95" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F95" t="n">
-        <v>26921.8655</v>
+        <v>442.2043</v>
       </c>
       <c r="G95" t="n">
-        <v>361.4333333333333</v>
+        <v>361.2833333333334</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,7 +3139,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C96" t="n">
         <v>366</v>
@@ -2861,15 +3148,18 @@
         <v>366</v>
       </c>
       <c r="E96" t="n">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F96" t="n">
-        <v>2709.9879</v>
+        <v>26921.8655</v>
       </c>
       <c r="G96" t="n">
-        <v>361.5333333333334</v>
+        <v>361.4333333333333</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C97" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D97" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E97" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F97" t="n">
-        <v>294.2327</v>
+        <v>2709.9879</v>
       </c>
       <c r="G97" t="n">
-        <v>361.7</v>
+        <v>361.5333333333334</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,12 +3209,15 @@
         <v>367</v>
       </c>
       <c r="F98" t="n">
-        <v>2108.8154</v>
+        <v>294.2327</v>
       </c>
       <c r="G98" t="n">
-        <v>361.8666666666667</v>
+        <v>361.7</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C99" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D99" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E99" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F99" t="n">
-        <v>3922.355</v>
+        <v>2108.8154</v>
       </c>
       <c r="G99" t="n">
-        <v>362.05</v>
+        <v>361.8666666666667</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C100" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D100" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E100" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F100" t="n">
-        <v>82.5989</v>
+        <v>3922.355</v>
       </c>
       <c r="G100" t="n">
-        <v>362.2333333333333</v>
+        <v>362.05</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C101" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D101" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E101" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F101" t="n">
-        <v>3730.7182</v>
+        <v>82.5989</v>
       </c>
       <c r="G101" t="n">
-        <v>362.3833333333333</v>
+        <v>362.2333333333333</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3011,21 +3316,24 @@
         <v>368</v>
       </c>
       <c r="C102" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D102" t="n">
         <v>368</v>
       </c>
       <c r="E102" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F102" t="n">
-        <v>690</v>
+        <v>3730.7182</v>
       </c>
       <c r="G102" t="n">
-        <v>362.55</v>
+        <v>362.3833333333333</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>368</v>
       </c>
       <c r="F103" t="n">
-        <v>310</v>
+        <v>690</v>
       </c>
       <c r="G103" t="n">
-        <v>362.7333333333333</v>
+        <v>362.55</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>368</v>
       </c>
       <c r="F104" t="n">
-        <v>4174.1956</v>
+        <v>310</v>
       </c>
       <c r="G104" t="n">
-        <v>362.8833333333333</v>
+        <v>362.7333333333333</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C105" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D105" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E105" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F105" t="n">
-        <v>1926.0328</v>
+        <v>4174.1956</v>
       </c>
       <c r="G105" t="n">
-        <v>363.0333333333334</v>
+        <v>362.8833333333333</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C106" t="n">
         <v>366</v>
       </c>
       <c r="D106" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E106" t="n">
         <v>366</v>
       </c>
       <c r="F106" t="n">
-        <v>9011.633599999999</v>
+        <v>1926.0328</v>
       </c>
       <c r="G106" t="n">
-        <v>363.1666666666667</v>
+        <v>363.0333333333334</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>366</v>
       </c>
       <c r="F107" t="n">
-        <v>1382.4493</v>
+        <v>9011.633599999999</v>
       </c>
       <c r="G107" t="n">
-        <v>363.3</v>
+        <v>363.1666666666667</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C108" t="n">
         <v>366</v>
       </c>
       <c r="D108" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E108" t="n">
         <v>366</v>
       </c>
       <c r="F108" t="n">
-        <v>1891.8263</v>
+        <v>1382.4493</v>
       </c>
       <c r="G108" t="n">
-        <v>363.4833333333333</v>
+        <v>363.3</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C109" t="n">
         <v>366</v>
       </c>
       <c r="D109" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E109" t="n">
         <v>366</v>
       </c>
       <c r="F109" t="n">
-        <v>1328.9426</v>
+        <v>1891.8263</v>
       </c>
       <c r="G109" t="n">
-        <v>363.6666666666667</v>
+        <v>363.4833333333333</v>
       </c>
       <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C110" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D110" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E110" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F110" t="n">
-        <v>150</v>
+        <v>1328.9426</v>
       </c>
       <c r="G110" t="n">
-        <v>363.8833333333333</v>
+        <v>363.6666666666667</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C111" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D111" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E111" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F111" t="n">
-        <v>1543.8369</v>
+        <v>150</v>
       </c>
       <c r="G111" t="n">
-        <v>364.0333333333334</v>
+        <v>363.8833333333333</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3277,15 +3612,18 @@
         <v>364</v>
       </c>
       <c r="E112" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F112" t="n">
-        <v>1913.2962</v>
+        <v>1543.8369</v>
       </c>
       <c r="G112" t="n">
-        <v>364.1833333333333</v>
+        <v>364.0333333333334</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C113" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D113" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E113" t="n">
         <v>363</v>
       </c>
       <c r="F113" t="n">
-        <v>127.4139</v>
+        <v>1913.2962</v>
       </c>
       <c r="G113" t="n">
-        <v>364.3166666666667</v>
+        <v>364.1833333333333</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3329,15 +3670,18 @@
         <v>363</v>
       </c>
       <c r="E114" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F114" t="n">
-        <v>4502.225</v>
+        <v>127.4139</v>
       </c>
       <c r="G114" t="n">
-        <v>364.4</v>
+        <v>364.3166666666667</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3355,15 +3699,18 @@
         <v>363</v>
       </c>
       <c r="E115" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F115" t="n">
-        <v>158.5905</v>
+        <v>4502.225</v>
       </c>
       <c r="G115" t="n">
-        <v>364.5166666666667</v>
+        <v>364.4</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C116" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D116" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E116" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F116" t="n">
-        <v>79.9225</v>
+        <v>158.5905</v>
       </c>
       <c r="G116" t="n">
-        <v>364.6</v>
+        <v>364.5166666666667</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C117" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D117" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E117" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F117" t="n">
-        <v>131.3653</v>
+        <v>79.9225</v>
       </c>
       <c r="G117" t="n">
-        <v>364.6833333333333</v>
+        <v>364.6</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C118" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D118" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E118" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F118" t="n">
-        <v>552</v>
+        <v>131.3653</v>
       </c>
       <c r="G118" t="n">
-        <v>364.75</v>
+        <v>364.6833333333333</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3462,12 +3818,15 @@
         <v>363</v>
       </c>
       <c r="F119" t="n">
-        <v>198.5051</v>
+        <v>552</v>
       </c>
       <c r="G119" t="n">
-        <v>364.8166666666667</v>
+        <v>364.75</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3488,12 +3847,15 @@
         <v>363</v>
       </c>
       <c r="F120" t="n">
-        <v>4.6077</v>
+        <v>198.5051</v>
       </c>
       <c r="G120" t="n">
-        <v>364.8666666666667</v>
+        <v>364.8166666666667</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C121" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D121" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E121" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F121" t="n">
-        <v>91.42529999999999</v>
+        <v>4.6077</v>
       </c>
       <c r="G121" t="n">
-        <v>364.9333333333333</v>
+        <v>364.8666666666667</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C122" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D122" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E122" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F122" t="n">
-        <v>1.063</v>
+        <v>91.42529999999999</v>
       </c>
       <c r="G122" t="n">
-        <v>364.9833333333333</v>
+        <v>364.9333333333333</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3566,532 +3934,15 @@
         <v>365</v>
       </c>
       <c r="F123" t="n">
-        <v>855.9997</v>
+        <v>1.063</v>
       </c>
       <c r="G123" t="n">
-        <v>365.0333333333334</v>
+        <v>364.9833333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>365</v>
-      </c>
-      <c r="C124" t="n">
-        <v>365</v>
-      </c>
-      <c r="D124" t="n">
-        <v>365</v>
-      </c>
-      <c r="E124" t="n">
-        <v>365</v>
-      </c>
-      <c r="F124" t="n">
-        <v>733.1019</v>
-      </c>
-      <c r="G124" t="n">
-        <v>365.0833333333333</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>365</v>
-      </c>
-      <c r="C125" t="n">
-        <v>365</v>
-      </c>
-      <c r="D125" t="n">
-        <v>365</v>
-      </c>
-      <c r="E125" t="n">
-        <v>365</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1385.8826</v>
-      </c>
-      <c r="G125" t="n">
-        <v>365.1166666666667</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>364</v>
-      </c>
-      <c r="C126" t="n">
-        <v>361</v>
-      </c>
-      <c r="D126" t="n">
-        <v>364</v>
-      </c>
-      <c r="E126" t="n">
-        <v>361</v>
-      </c>
-      <c r="F126" t="n">
-        <v>4747.348</v>
-      </c>
-      <c r="G126" t="n">
-        <v>365.0666666666667</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>363</v>
-      </c>
-      <c r="C127" t="n">
-        <v>363</v>
-      </c>
-      <c r="D127" t="n">
-        <v>363</v>
-      </c>
-      <c r="E127" t="n">
-        <v>363</v>
-      </c>
-      <c r="F127" t="n">
-        <v>119</v>
-      </c>
-      <c r="G127" t="n">
-        <v>365.05</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>362</v>
-      </c>
-      <c r="C128" t="n">
-        <v>362</v>
-      </c>
-      <c r="D128" t="n">
-        <v>362</v>
-      </c>
-      <c r="E128" t="n">
-        <v>362</v>
-      </c>
-      <c r="F128" t="n">
-        <v>159.4304</v>
-      </c>
-      <c r="G128" t="n">
-        <v>365.0166666666667</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>360</v>
-      </c>
-      <c r="C129" t="n">
-        <v>360</v>
-      </c>
-      <c r="D129" t="n">
-        <v>360</v>
-      </c>
-      <c r="E129" t="n">
-        <v>360</v>
-      </c>
-      <c r="F129" t="n">
-        <v>128.2634</v>
-      </c>
-      <c r="G129" t="n">
-        <v>364.9333333333333</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>360</v>
-      </c>
-      <c r="C130" t="n">
-        <v>359</v>
-      </c>
-      <c r="D130" t="n">
-        <v>360</v>
-      </c>
-      <c r="E130" t="n">
-        <v>358</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1074.9984</v>
-      </c>
-      <c r="G130" t="n">
-        <v>364.8333333333333</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>359</v>
-      </c>
-      <c r="C131" t="n">
-        <v>359</v>
-      </c>
-      <c r="D131" t="n">
-        <v>359</v>
-      </c>
-      <c r="E131" t="n">
-        <v>359</v>
-      </c>
-      <c r="F131" t="n">
-        <v>180.9877</v>
-      </c>
-      <c r="G131" t="n">
-        <v>364.7166666666666</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>357</v>
-      </c>
-      <c r="C132" t="n">
-        <v>357</v>
-      </c>
-      <c r="D132" t="n">
-        <v>357</v>
-      </c>
-      <c r="E132" t="n">
-        <v>357</v>
-      </c>
-      <c r="F132" t="n">
-        <v>349.2256</v>
-      </c>
-      <c r="G132" t="n">
-        <v>364.5666666666667</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>359</v>
-      </c>
-      <c r="C133" t="n">
-        <v>359</v>
-      </c>
-      <c r="D133" t="n">
-        <v>359</v>
-      </c>
-      <c r="E133" t="n">
-        <v>359</v>
-      </c>
-      <c r="F133" t="n">
-        <v>9011.633599999999</v>
-      </c>
-      <c r="G133" t="n">
-        <v>364.4333333333333</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>359</v>
-      </c>
-      <c r="C134" t="n">
-        <v>359</v>
-      </c>
-      <c r="D134" t="n">
-        <v>359</v>
-      </c>
-      <c r="E134" t="n">
-        <v>359</v>
-      </c>
-      <c r="F134" t="n">
-        <v>2893.8462</v>
-      </c>
-      <c r="G134" t="n">
-        <v>364.2833333333334</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>356</v>
-      </c>
-      <c r="C135" t="n">
-        <v>355</v>
-      </c>
-      <c r="D135" t="n">
-        <v>356</v>
-      </c>
-      <c r="E135" t="n">
-        <v>355</v>
-      </c>
-      <c r="F135" t="n">
-        <v>2676.1974</v>
-      </c>
-      <c r="G135" t="n">
-        <v>364.0666666666667</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>358</v>
-      </c>
-      <c r="C136" t="n">
-        <v>358</v>
-      </c>
-      <c r="D136" t="n">
-        <v>358</v>
-      </c>
-      <c r="E136" t="n">
-        <v>358</v>
-      </c>
-      <c r="F136" t="n">
-        <v>72.38249999999999</v>
-      </c>
-      <c r="G136" t="n">
-        <v>363.9166666666667</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>359</v>
-      </c>
-      <c r="C137" t="n">
-        <v>360</v>
-      </c>
-      <c r="D137" t="n">
-        <v>360</v>
-      </c>
-      <c r="E137" t="n">
-        <v>359</v>
-      </c>
-      <c r="F137" t="n">
-        <v>57.5473</v>
-      </c>
-      <c r="G137" t="n">
-        <v>363.8</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>361</v>
-      </c>
-      <c r="C138" t="n">
-        <v>362</v>
-      </c>
-      <c r="D138" t="n">
-        <v>362</v>
-      </c>
-      <c r="E138" t="n">
-        <v>361</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1786.443</v>
-      </c>
-      <c r="G138" t="n">
-        <v>363.7333333333333</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>361</v>
-      </c>
-      <c r="C139" t="n">
-        <v>361</v>
-      </c>
-      <c r="D139" t="n">
-        <v>361</v>
-      </c>
-      <c r="E139" t="n">
-        <v>361</v>
-      </c>
-      <c r="F139" t="n">
-        <v>596</v>
-      </c>
-      <c r="G139" t="n">
-        <v>363.6666666666667</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>361</v>
-      </c>
-      <c r="C140" t="n">
-        <v>363</v>
-      </c>
-      <c r="D140" t="n">
-        <v>363</v>
-      </c>
-      <c r="E140" t="n">
-        <v>361</v>
-      </c>
-      <c r="F140" t="n">
-        <v>8597.812099999999</v>
-      </c>
-      <c r="G140" t="n">
-        <v>363.65</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>363</v>
-      </c>
-      <c r="C141" t="n">
-        <v>363</v>
-      </c>
-      <c r="D141" t="n">
-        <v>363</v>
-      </c>
-      <c r="E141" t="n">
-        <v>363</v>
-      </c>
-      <c r="F141" t="n">
-        <v>47.2121</v>
-      </c>
-      <c r="G141" t="n">
-        <v>363.6333333333333</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>363</v>
-      </c>
-      <c r="C142" t="n">
-        <v>363</v>
-      </c>
-      <c r="D142" t="n">
-        <v>363</v>
-      </c>
-      <c r="E142" t="n">
-        <v>363</v>
-      </c>
-      <c r="F142" t="n">
-        <v>4793.8953</v>
-      </c>
-      <c r="G142" t="n">
-        <v>363.6166666666667</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>365</v>
-      </c>
-      <c r="C143" t="n">
-        <v>365</v>
-      </c>
-      <c r="D143" t="n">
-        <v>365</v>
-      </c>
-      <c r="E143" t="n">
-        <v>365</v>
-      </c>
-      <c r="F143" t="n">
-        <v>305.4894</v>
-      </c>
-      <c r="G143" t="n">
-        <v>363.6333333333333</v>
-      </c>
-      <c r="H143" t="n">
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
